--- a/data-jada/maker2017.xlsx
+++ b/data-jada/maker2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyahi\git\nlp4j-data\data-jada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FAE600-D43F-46F8-BBD2-E907FD5431CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF51B132-084C-47E5-9839-BA2815EC1575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="3165" windowWidth="19320" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="10110" windowWidth="26190" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="maker" sheetId="1" r:id="rId1"/>
@@ -463,11 +463,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:P13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -517,7 +519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -528,28 +530,28 @@
         <v>1123</v>
       </c>
       <c r="D2">
+        <v>4380</v>
+      </c>
+      <c r="E2">
+        <v>30338</v>
+      </c>
+      <c r="F2">
+        <v>5103</v>
+      </c>
+      <c r="G2">
+        <v>13946</v>
+      </c>
+      <c r="H2">
+        <v>2301</v>
+      </c>
+      <c r="I2">
+        <v>2352</v>
+      </c>
+      <c r="J2">
+        <v>40324</v>
+      </c>
+      <c r="K2">
         <v>12722</v>
-      </c>
-      <c r="E2">
-        <v>4380</v>
-      </c>
-      <c r="F2">
-        <v>30338</v>
-      </c>
-      <c r="G2">
-        <v>5103</v>
-      </c>
-      <c r="H2">
-        <v>13946</v>
-      </c>
-      <c r="I2">
-        <v>2301</v>
-      </c>
-      <c r="J2">
-        <v>2352</v>
-      </c>
-      <c r="K2">
-        <v>40324</v>
       </c>
       <c r="L2">
         <v>8828</v>
@@ -567,7 +569,7 @@
         <v>258085</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -578,28 +580,28 @@
         <v>975</v>
       </c>
       <c r="D3">
+        <v>5284</v>
+      </c>
+      <c r="E3">
+        <v>34267</v>
+      </c>
+      <c r="F3">
+        <v>6824</v>
+      </c>
+      <c r="G3">
+        <v>16027</v>
+      </c>
+      <c r="H3">
+        <v>2596</v>
+      </c>
+      <c r="I3">
+        <v>3278</v>
+      </c>
+      <c r="J3">
+        <v>44952</v>
+      </c>
+      <c r="K3">
         <v>13218</v>
-      </c>
-      <c r="E3">
-        <v>5284</v>
-      </c>
-      <c r="F3">
-        <v>34267</v>
-      </c>
-      <c r="G3">
-        <v>6824</v>
-      </c>
-      <c r="H3">
-        <v>16027</v>
-      </c>
-      <c r="I3">
-        <v>2596</v>
-      </c>
-      <c r="J3">
-        <v>3278</v>
-      </c>
-      <c r="K3">
-        <v>44952</v>
       </c>
       <c r="L3">
         <v>9183</v>
@@ -617,7 +619,7 @@
         <v>312035</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -628,28 +630,28 @@
         <v>1819</v>
       </c>
       <c r="D4">
+        <v>11443</v>
+      </c>
+      <c r="E4">
+        <v>49847</v>
+      </c>
+      <c r="F4">
+        <v>13160</v>
+      </c>
+      <c r="G4">
+        <v>28751</v>
+      </c>
+      <c r="H4">
+        <v>5494</v>
+      </c>
+      <c r="I4">
+        <v>5878</v>
+      </c>
+      <c r="J4">
+        <v>64395</v>
+      </c>
+      <c r="K4">
         <v>18496</v>
-      </c>
-      <c r="E4">
-        <v>11443</v>
-      </c>
-      <c r="F4">
-        <v>49847</v>
-      </c>
-      <c r="G4">
-        <v>13160</v>
-      </c>
-      <c r="H4">
-        <v>28751</v>
-      </c>
-      <c r="I4">
-        <v>5494</v>
-      </c>
-      <c r="J4">
-        <v>5878</v>
-      </c>
-      <c r="K4">
-        <v>64395</v>
       </c>
       <c r="L4">
         <v>12834</v>
@@ -667,7 +669,7 @@
         <v>460654</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -717,7 +719,7 @@
         <v>224220</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -767,7 +769,7 @@
         <v>237512</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -817,7 +819,7 @@
         <v>315744</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -867,7 +869,7 @@
         <v>278517</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -917,7 +919,7 @@
         <v>233810</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -967,7 +969,7 @@
         <v>318175</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>231563</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -1067,7 +1069,7 @@
         <v>258164</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -1117,49 +1119,49 @@
         <v>262345</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C28" s="1"/>
     </row>
   </sheetData>
